--- a/vivo/data/tg486/preprocess/tg486_raw.xlsx
+++ b/vivo/data/tg486/preprocess/tg486_raw.xlsx
@@ -1964,12 +1964,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Copper</t>
+          <t>Copper dichloride</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7440-50-8</t>
+          <t>7447-39-4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -15389,12 +15389,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2-ethoxyethyl {4-[2,6-dioxo-7-(4-propoxyphenyl)-2,6-dihydrobenzo[1,2-b:4,5-b']difuran-3-yl]phenoxy}acetate</t>
+          <t>3,3,4,4,5,5,6,6,7,7,8,8,8-tridecafluorooctan-1-ol</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>126877-06-3</t>
+          <t>647-42-7</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -15409,7 +15409,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -15423,7 +15423,11 @@
         </is>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="K305" t="inlineStr"/>
     </row>
     <row r="306">
@@ -16104,12 +16108,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Naphtha (petroleum), isomerization</t>
+          <t>Norflurane</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>64741-70-4</t>
+          <t>811-97-2</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -16129,7 +16133,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -16598,12 +16602,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Copper sulphide</t>
+          <t>3-chloropropane-1,2-diol</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>1317-40-4</t>
+          <t>96-24-2</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -16618,10 +16622,14 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>not examined</t>
-        </is>
-      </c>
-      <c r="G330" t="inlineStr"/>
+          <t>not specified</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>not specified</t>
+        </is>
+      </c>
       <c r="H330" t="inlineStr">
         <is>
           <t>valid</t>
@@ -16630,7 +16638,7 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not examined</t>
         </is>
       </c>
       <c r="K330" t="inlineStr"/>
